--- a/order12_TDM.xlsx
+++ b/order12_TDM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhivya.TRANSITUSNEXGEN\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{014EB31B-5B70-4EE9-83F0-27F3ED5469DE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDDD0A0B-C85D-441B-9519-B50EE7E0311D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -443,7 +443,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
